--- a/Documentation/Motorola Stability Tests.xlsx
+++ b/Documentation/Motorola Stability Tests.xlsx
@@ -5328,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5605,7 +5605,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="22">
-        <v>1.7013888888888892E-3</v>
+        <v>4.0972222222222226E-3</v>
       </c>
       <c r="D22" s="2">
         <v>1.29</v>
@@ -5619,7 +5619,7 @@
         <v>159</v>
       </c>
       <c r="C23" s="22">
-        <v>7.8703703703703705E-4</v>
+        <v>3.9351851851851857E-3</v>
       </c>
       <c r="D23" s="2">
         <v>1.29</v>
@@ -5633,7 +5633,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="22">
-        <v>1.9791666666666668E-3</v>
+        <v>4.2476851851851851E-3</v>
       </c>
       <c r="D24" s="2">
         <v>1.29</v>
@@ -5647,7 +5647,7 @@
         <v>161</v>
       </c>
       <c r="C25" s="22">
-        <v>1.0300925925925926E-3</v>
+        <v>3.2175925925925926E-3</v>
       </c>
       <c r="D25" s="2">
         <v>1.29</v>
@@ -5661,7 +5661,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="22">
-        <v>9.4907407407407408E-4</v>
+        <v>3.8425925925925923E-3</v>
       </c>
       <c r="D26" s="2">
         <v>1.29</v>
@@ -5675,7 +5675,7 @@
         <v>163</v>
       </c>
       <c r="C27" s="22">
-        <v>1.4814814814814814E-3</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="D27" s="2">
         <v>1.29</v>
@@ -5689,7 +5689,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="22">
-        <v>1.4583333333333334E-3</v>
+        <v>3.7847222222222223E-3</v>
       </c>
       <c r="D28" s="2">
         <v>1.29</v>
@@ -5704,7 +5704,7 @@
         <v>165</v>
       </c>
       <c r="C29" s="22">
-        <v>1.2152777777777778E-3</v>
+        <v>3.9236111111111112E-3</v>
       </c>
       <c r="D29" s="2">
         <v>1.29</v>
@@ -5719,7 +5719,7 @@
         <v>166</v>
       </c>
       <c r="C30" s="22">
-        <v>1.2384259259259258E-3</v>
+        <v>3.7615740740740739E-3</v>
       </c>
       <c r="D30" s="2">
         <v>1.29</v>
@@ -5734,7 +5734,7 @@
         <v>167</v>
       </c>
       <c r="C31" s="22">
-        <v>2.5115740740740741E-3</v>
+        <v>3.5069444444444445E-3</v>
       </c>
       <c r="D31" s="2">
         <v>1.29</v>
@@ -5749,7 +5749,7 @@
         <v>168</v>
       </c>
       <c r="C32" s="22">
-        <v>1.25E-3</v>
+        <v>3.8310185185185183E-3</v>
       </c>
       <c r="D32" s="2">
         <v>1.29</v>
@@ -5794,7 +5794,7 @@
         <v>173</v>
       </c>
       <c r="C35" s="22">
-        <v>6.4814814814814813E-3</v>
+        <v>6.9212962962962969E-3</v>
       </c>
       <c r="D35" s="2">
         <v>1.29</v>
@@ -5804,7 +5804,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" s="23">
         <f>SUM(C22:C35)</f>
-        <v>2.2083333333333333E-2</v>
+        <v>4.9652777777777782E-2</v>
       </c>
       <c r="D36" s="2"/>
       <c r="G36" s="23"/>

--- a/Documentation/Motorola Stability Tests.xlsx
+++ b/Documentation/Motorola Stability Tests.xlsx
@@ -4,16 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5955" yWindow="360" windowWidth="24000" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="-5955" yWindow="360" windowWidth="24000" windowHeight="9525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Master Test List" sheetId="1" r:id="rId1"/>
     <sheet name="Sortable List" sheetId="2" r:id="rId2"/>
     <sheet name="Completed Items" sheetId="3" r:id="rId3"/>
     <sheet name="Eggplant Scripts" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Results" sheetId="5" r:id="rId5"/>
+    <sheet name="Results Analysis" sheetId="6" r:id="rId6"/>
+    <sheet name="Results Graphed" sheetId="7" r:id="rId7"/>
+    <sheet name="Graph - Test Breakdown" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Completed Items'!$A$3:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Results Analysis'!$N$67:$P$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sortable List'!$A$3:$D$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="233">
   <si>
     <t>High</t>
   </si>
@@ -424,9 +429,6 @@
     <t>Contacts</t>
   </si>
   <si>
-    <t>Exe Time</t>
-  </si>
-  <si>
     <t>Build</t>
   </si>
   <si>
@@ -560,6 +562,174 @@
   </si>
   <si>
     <t>Awaiting design analysis</t>
+  </si>
+  <si>
+    <t>AT&amp;T Iterations</t>
+  </si>
+  <si>
+    <t>Exe Time (m:s)</t>
+  </si>
+  <si>
+    <t>Total Time (m:s)</t>
+  </si>
+  <si>
+    <t>51 hours, 19 min</t>
+  </si>
+  <si>
+    <t>12 hours, 31 min</t>
+  </si>
+  <si>
+    <t>Run 1 Pass</t>
+  </si>
+  <si>
+    <t>Pass %</t>
+  </si>
+  <si>
+    <t>Scripts</t>
+  </si>
+  <si>
+    <t>Run 2 Pass</t>
+  </si>
+  <si>
+    <t>Total tests (Iterations - Run 1)</t>
+  </si>
+  <si>
+    <t>Total scripts (all scripts being executed )</t>
+  </si>
+  <si>
+    <t>Total tests (Iterations -Total)</t>
+  </si>
+  <si>
+    <t>Total tests (Iterations - Run 2)</t>
+  </si>
+  <si>
+    <t>Scripting Error</t>
+  </si>
+  <si>
+    <t>Device Error</t>
+  </si>
+  <si>
+    <t>Network Error</t>
+  </si>
+  <si>
+    <t>Improved script quality.  Refined script to make future analysis easier.</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Browser App crashed.</t>
+  </si>
+  <si>
+    <t>No action taken on scripts.</t>
+  </si>
+  <si>
+    <t>Video did not load after triggering video stream.</t>
+  </si>
+  <si>
+    <t>Call History only loads after 10+ seconds after blackscreen.</t>
+  </si>
+  <si>
+    <t>Errors accounted for</t>
+  </si>
+  <si>
+    <t>Script did not scroll down far enough to receive new message.</t>
+  </si>
+  <si>
+    <t>Improved script quality.</t>
+  </si>
+  <si>
+    <t>Other Error</t>
+  </si>
+  <si>
+    <t>EggPlant memory issue - contact data was lost.</t>
+  </si>
+  <si>
+    <t>Wifi list changed during split second transition between finding wifi network screen element and selecting wifi network.</t>
+  </si>
+  <si>
+    <t>Error Totals</t>
+  </si>
+  <si>
+    <t>Tests Passed</t>
+  </si>
+  <si>
+    <t>State reset logic did account for this particular state.</t>
+  </si>
+  <si>
+    <t>Message did not arrive within 60 seconds.  In 1 instance, text message did not arrive within 60 seconds.</t>
+  </si>
+  <si>
+    <t>Script did not scroll down far enough to receive new message.  In 5 instances, text message did not arrive within 60 seconds.</t>
+  </si>
+  <si>
+    <t>State reset logic did account for this particular state.  In 1 instance, text message did not arrive within 60 seconds.</t>
+  </si>
+  <si>
+    <t>Reference video captured of error.</t>
+  </si>
+  <si>
+    <t>No action taken on scripts.  Image automatically captured of error.</t>
+  </si>
+  <si>
+    <t>Tests Failed</t>
+  </si>
+  <si>
+    <t>Tests Failed - Scripting</t>
+  </si>
+  <si>
+    <t>Tests Failed - Device</t>
+  </si>
+  <si>
+    <t>Tests Failed - Network</t>
+  </si>
+  <si>
+    <t>Tests Failed - Other</t>
+  </si>
+  <si>
+    <t>Improved script quality.  Potential issue with email spam.</t>
+  </si>
+  <si>
+    <t>Scripting Error - Text messaging app - insufficient scrolling.</t>
+  </si>
+  <si>
+    <t>Scripting Error - Text messaging app - insufficient state reset logic.</t>
+  </si>
+  <si>
+    <t>Scripting Error - Wifi list changed during split second transition.</t>
+  </si>
+  <si>
+    <t>Device Error - App failure</t>
+  </si>
+  <si>
+    <t>Device Error - Call History only loads after 10+ seconds after blackscreen.</t>
+  </si>
+  <si>
+    <t>Network Error - Video did not load.</t>
+  </si>
+  <si>
+    <t>Network Error - Message did not arrive within 60 seconds.</t>
+  </si>
+  <si>
+    <t>Other Error - EggPlant memory issue - contact data was lost.</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>% of Total</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Device Error - App failure.</t>
+  </si>
+  <si>
+    <t>RUN 1</t>
+  </si>
+  <si>
+    <t>RUN 2</t>
   </si>
 </sst>
 </file>
@@ -627,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -659,12 +829,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,6 +948,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,6 +1013,1882 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Graphed'!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Tests Failed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tests Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Graphed'!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6117297698589459E-2"/>
+                  <c:y val="1.6877622177815715E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10362929578123448"/>
+                  <c:y val="7.8762217787658781E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7208377905991263E-2"/>
+                  <c:y val="0.13094708947247957"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Tests Failed - Network, 8, 0%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4847809948032665E-2"/>
+                  <c:y val="0.17187987097485274"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9391239792130658E-3"/>
+                  <c:y val="-0.28691957702286719"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Graphed'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tests Failed - Scripting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tests Failed - Device</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tests Failed - Network</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tests Failed - Other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tests Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Graphed'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19797979797979798"/>
+                  <c:y val="-4.4570967090652128E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2121212121212121E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2121212121212121E-2"/>
+                  <c:y val="-5.0078235412881082E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Graphed'!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scripting Error</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Device Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network Error</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Graphed'!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9864126100259567E-2"/>
+                  <c:y val="1.9898992770308044E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7075738460869185E-2"/>
+                  <c:y val="3.7031183376446175E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4120009860645872E-2"/>
+                  <c:y val="-1.7226944104911074E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10024680616580386"/>
+                  <c:y val="0.21060443256867259"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1910886829754019E-2"/>
+                  <c:y val="-2.4626813345082769E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Device Error - Call History issue., 172, 31%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3538860128671761E-2"/>
+                  <c:y val="-5.0811374209992703E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13213768168481702"/>
+                  <c:y val="-0.35585434492168622"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10063137135482374"/>
+                  <c:y val="-5.3137004083875804E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Graphed'!$A$17:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Scripting Error - Text messaging app - insufficient scrolling.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scripting Error - Text messaging app - insufficient state reset logic.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scripting Error - Wifi list changed during split second transition.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device Error - App failure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Device Error - Call History only loads after 10+ seconds after blackscreen.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Network Error - Video did not load.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Network Error - Message did not arrive within 60 seconds.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other Error - EggPlant memory issue - contact data was lost.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Graphed'!$B$17:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12122075330500601"/>
+                  <c:y val="-4.3110792969060688E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Scripting Error - Text messaging app - insufficient scrolling, (73), (4.87%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9345537741054912E-2"/>
+                  <c:y val="-6.8694822238129324E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Scripting Error - Text messaging app - insufficient state reset logic, (99), (6.61%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8866834795482854E-2"/>
+                  <c:y val="-6.9004692595243777E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Scripting Error - Wifi list changed during split second transition, (5), (0.33%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6469980738816108E-2"/>
+                  <c:y val="4.2393859858426787E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Device Error - App failure, (1), (0.07%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9311501297337402E-3"/>
+                  <c:y val="-3.8955539648453032E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Device Error - Call History only loads after 10+ seconds after blackscreen, (172), (11.48%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.021474355236459E-2"/>
+                  <c:y val="-3.4655372623876558E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Network Error - Video did not load, (1), (0.07%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5675331331968426E-2"/>
+                  <c:y val="3.4721546170365068E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Network Error - Message did not arrive within 60 seconds, (7), (0.47%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7355805830731358E-2"/>
+                  <c:y val="-6.9529945120496307E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Other Error - EggPlant memory issue - contact data was lost, (200), (13.35%)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3993232201244674E-3"/>
+                  <c:y val="-4.4327050027837427E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <a:t>Tests Passed, (940), (62.75%)</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Graphed'!$A$17:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Scripting Error - Text messaging app - insufficient scrolling.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scripting Error - Text messaging app - insufficient state reset logic.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scripting Error - Wifi list changed during split second transition.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Device Error - App failure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Device Error - Call History only loads after 10+ seconds after blackscreen.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Network Error - Video did not load.</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Network Error - Message did not arrive within 60 seconds.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other Error - EggPlant memory issue - contact data was lost.</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tests Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Graphed'!$B$17:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="25"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664222" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00471</cdr:x>
+      <cdr:y>0.05195</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.14691</cdr:x>
+      <cdr:y>0.14935</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="40821" y="326571"/>
+          <a:ext cx="1231448" cy="612322"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Total Tests - 1498</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Total Passed - 940</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Failed - 558</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00471</cdr:x>
+      <cdr:y>0.00758</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30952</cdr:x>
+      <cdr:y>0.05195</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="40822" y="47624"/>
+          <a:ext cx="2639786" cy="278947"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Motorola Shelter Stability</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Tests - Trial Run</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14612</cdr:x>
+      <cdr:y>0.05195</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30952</cdr:x>
+      <cdr:y>0.14935</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1265463" y="326571"/>
+          <a:ext cx="1415144" cy="612322"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Suite Iterations - 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Time Elapsed - </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>129 hr : 06 m : 42 sec</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,10 +5581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,29 +5595,30 @@
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="50" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -3499,23 +5638,26 @@
         <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>26</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="9">
-        <f>J3/I3</f>
+      <c r="M3" s="9">
+        <f>K3/J3</f>
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3534,22 +5676,24 @@
       <c r="F4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="I4" s="4">
+      <c r="G4" s="2">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4">
         <v>21</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>17</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L6" si="0">J4/I4</f>
+      <c r="M4" s="9">
+        <f t="shared" ref="M4:M6" si="0">K4/J4</f>
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -3568,63 +5712,65 @@
       <c r="F5" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="I5" s="4">
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4">
         <v>11</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="13">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="I6" s="5">
-        <f>SUM(I3:I5)</f>
-        <v>58</v>
-      </c>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="J6" s="5">
         <f>SUM(J3:J5)</f>
+        <v>58</v>
+      </c>
+      <c r="K6" s="5">
+        <f>SUM(K3:K5)</f>
         <v>48</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="17">
         <f t="shared" si="0"/>
         <v>0.82758620689655171</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13">
         <v>3</v>
@@ -3638,14 +5784,16 @@
       <c r="F7" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="13">
         <v>3</v>
@@ -3654,52 +5802,54 @@
         <v>0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="J8" s="26">
+      <c r="G8" s="2">
+        <v>75</v>
+      </c>
+      <c r="K8" s="26">
         <v>6</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="13">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="J9" s="26">
+      <c r="L8" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="K9" s="26">
         <v>4</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
@@ -3708,63 +5858,69 @@
         <v>0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>0</v>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13">
-        <v>3</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>0</v>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" s="13">
         <v>3</v>
       </c>
@@ -3772,124 +5928,136 @@
         <v>0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C14" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>44</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="G14" s="2">
         <v>50</v>
       </c>
-      <c r="C15" s="18">
-        <v>3</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>45</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>47</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="18">
-        <v>3</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>48</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C19" s="13">
         <v>3</v>
@@ -3898,19 +6066,21 @@
         <v>0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
@@ -3919,19 +6089,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C21" s="13">
         <v>3</v>
@@ -3940,411 +6112,430 @@
         <v>0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>61</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="11">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>0</v>
+      <c r="G21" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>62</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="11">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="G22" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>63</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="11">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>65</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="13">
-        <v>3</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>66</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="13">
-        <v>3</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>67</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="13">
-        <v>3</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>0</v>
+      <c r="G23" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>70</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="13">
-        <v>3</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>0</v>
+      <c r="G27" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>73</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="13">
-        <v>3</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>0</v>
+      <c r="G28" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>8</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>9</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="11">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>11</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="13">
-        <v>2</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="29">
+        <v>10</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C33" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>14</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="13">
-        <v>2</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>15</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="13">
-        <v>2</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="29">
+        <v>10</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>125</v>
+        <v>3</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>26</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>101</v>
+      <c r="G36" s="29">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="11">
-        <v>2</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="29">
+        <v>10</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>36</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="11">
         <v>2</v>
@@ -4358,14 +6549,17 @@
       <c r="F40" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="29">
+        <v>5</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="11">
         <v>2</v>
@@ -4379,404 +6573,441 @@
       <c r="F41" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="G41" s="29">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>39</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="29">
+        <v>5</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="C43" s="11">
+        <v>2</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="29">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>44</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>45</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="18">
+        <v>3</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>46</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="18">
-        <v>2</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
-        <v>49</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="18">
-        <v>2</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>53</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="13">
-        <v>2</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>54</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="11">
-        <v>2</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>55</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="11">
-        <v>2</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>56</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="11">
-        <v>2</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>64</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="11">
-        <v>2</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>69</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="24">
-        <v>2</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="24"/>
+      <c r="C49" s="18">
+        <v>2</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>72</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="24">
-        <v>2</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="24"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>47</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="18">
+        <v>3</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20"/>
       <c r="F50" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>24</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="13" t="s">
+      <c r="G50" s="29"/>
+      <c r="H50" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>48</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="18">
+        <v>3</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>49</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="18">
+        <v>2</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>50</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
-        <v>25</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="11">
-        <v>1</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>30</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>33</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="G53" s="29">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>51</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>35</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="13">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="G54" s="29">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>52</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>36</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="6">
-        <v>1</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>41</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="6">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="G55" s="29">
+        <v>1</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>53</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="13">
+        <v>2</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>42</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>43</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="29">
+        <v>10</v>
+      </c>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>54</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="11">
+        <v>2</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="29">
+        <v>20</v>
+      </c>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>55</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="11">
+        <v>2</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="29">
+        <v>50</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>56</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="11">
+        <v>2</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="29">
+        <v>1</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C60" s="11">
         <v>1</v>
@@ -4785,535 +7016,601 @@
         <v>3</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <v>51</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="11">
-        <v>1</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>106</v>
+      <c r="G60" s="29">
+        <v>10</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>58</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
-        <v>52</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="11">
-        <v>1</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>106</v>
+      <c r="G61" s="29">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>59</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="13">
+        <v>3</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
-        <v>57</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="11">
-        <v>1</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>107</v>
+      <c r="G62" s="29">
+        <v>50</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>60</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="13">
+        <v>3</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
+      <c r="G63" s="29">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>61</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="11">
+        <v>3</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="29">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>62</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="C65" s="11">
+        <v>3</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" s="29">
+        <v>50</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>63</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="11">
+        <v>3</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="29">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>64</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="11">
+        <v>2</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="29">
+        <v>1</v>
+      </c>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>65</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="13">
+        <v>3</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="29">
+        <v>20</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>66</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="13">
+        <v>3</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="29">
+        <v>20</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>67</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="13">
+        <v>3</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="29">
+        <v>20</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="24">
+        <v>68</v>
+      </c>
+      <c r="B71" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="24">
-        <v>1</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="18" t="s">
+      <c r="C71" s="24">
+        <v>1</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
+      <c r="G71" s="29"/>
+      <c r="H71" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
+        <v>69</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="24">
+        <v>2</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>70</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="13">
+        <v>3</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="29">
+        <v>1</v>
+      </c>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
         <v>71</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B74" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="24">
-        <v>1</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="18" t="s">
+      <c r="C74" s="24">
+        <v>1</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="G74" s="29"/>
+      <c r="H74" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
+        <v>72</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="24">
+        <v>2</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>73</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="13">
+        <v>3</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76" s="29">
+        <v>1</v>
+      </c>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
         <v>74</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="6">
-        <v>1</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="8" t="s">
+      <c r="F77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="29"/>
+      <c r="H77" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
         <v>75</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="6">
-        <v>1</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="8" t="s">
+      <c r="F78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="29"/>
+      <c r="H78" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
         <v>76</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="8" t="s">
+      <c r="F79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
         <v>77</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="6">
-        <v>1</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="8" t="s">
+      <c r="F80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="29"/>
+      <c r="H80" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
         <v>78</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="6">
-        <v>1</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="F81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="29"/>
+      <c r="H81" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
         <v>79</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="6">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="F82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="29"/>
+      <c r="H82" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
         <v>80</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="6">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="8" t="s">
+      <c r="F83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="29"/>
+      <c r="H83" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>81</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="8" t="s">
+      <c r="F84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="29"/>
+      <c r="H84" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>3</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>6</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>21</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>22</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>23</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="6">
-        <v>0</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>27</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="6">
-        <v>0</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>28</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="6">
-        <v>0</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>29</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="6">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>31</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="6">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>32</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>34</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G84" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:G3"/>
+  <autoFilter ref="A3:H3"/>
+  <mergeCells count="1">
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -5326,25 +7623,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>129</v>
       </c>
@@ -5352,13 +7652,19 @@
         <v>130</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>128</v>
       </c>
@@ -5371,13 +7677,20 @@
       <c r="D3" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="22">
+        <f>E3*C3</f>
+        <v>4.3518518518518512E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C4" s="22">
         <v>3.1249999999999997E-3</v>
@@ -5385,13 +7698,20 @@
       <c r="D4" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" ref="F4:F16" si="0">E4*C4</f>
+        <v>3.1249999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C5" s="22">
         <v>2.6504629629629625E-3</v>
@@ -5399,13 +7719,20 @@
       <c r="D5" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="0"/>
+        <v>1.3252314814814812E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C6" s="22">
         <v>1.5624999999999999E-3</v>
@@ -5413,41 +7740,52 @@
       <c r="D6" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5624999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C9" s="22">
         <v>1.4467592592592594E-3</v>
@@ -5455,13 +7793,20 @@
       <c r="D9" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>1.4467592592592594E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="22">
         <v>3.5763888888888894E-3</v>
@@ -5469,13 +7814,20 @@
       <c r="D10" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>3.5763888888888894E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C11" s="22">
         <v>1.4930555555555556E-3</v>
@@ -5483,13 +7835,20 @@
       <c r="D11" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>7.4652777777777776E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="22">
         <v>1.4699074074074074E-3</v>
@@ -5497,13 +7856,20 @@
       <c r="D12" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>1.4699074074074074E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C13" s="22">
         <v>2.8819444444444444E-3</v>
@@ -5511,13 +7877,20 @@
       <c r="D13" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.14409722222222221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="22">
         <v>1.8055555555555557E-3</v>
@@ -5525,13 +7898,20 @@
       <c r="D14" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8055555555555557E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="22">
         <v>5.8796296296296296E-3</v>
@@ -5539,19 +7919,33 @@
       <c r="D15" s="2">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1175925925925926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="22">
         <v>1.3773148148148147E-3</v>
       </c>
       <c r="D16" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7546296296296294E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5562,31 +7956,47 @@
         <v>2.9444444444444443E-2</v>
       </c>
       <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="23">
+        <f>SUM(F3:F16)</f>
+        <v>0.50718750000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>133</v>
+      <c r="E20" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5596,13 +8006,14 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="22">
         <v>4.0972222222222226E-3</v>
@@ -5610,19 +8021,33 @@
       <c r="D22" s="2">
         <v>1.29</v>
       </c>
+      <c r="E22" s="2">
+        <v>25</v>
+      </c>
+      <c r="F22" s="22">
+        <f>E22*C22</f>
+        <v>0.10243055555555557</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="22">
         <v>3.9351851851851857E-3</v>
       </c>
       <c r="D23" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" ref="F23:F35" si="1">E23*C23</f>
+        <v>9.8379629629629636E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5630,13 +8055,20 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="22">
         <v>4.2476851851851851E-3</v>
       </c>
       <c r="D24" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E24" s="2">
+        <v>75</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.3185763888888889</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,13 +8076,20 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="22">
         <v>3.2175925925925926E-3</v>
       </c>
       <c r="D25" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E25" s="2">
+        <v>75</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.24131944444444445</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5658,13 +8097,20 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="22">
         <v>3.8425925925925923E-3</v>
       </c>
       <c r="D26" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E26" s="2">
+        <v>50</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19212962962962962</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5672,13 +8118,20 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="22">
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="D27" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E27" s="2">
+        <v>50</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="1"/>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5686,13 +8139,20 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="22">
         <v>3.7847222222222223E-3</v>
       </c>
       <c r="D28" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E28" s="2">
+        <v>50</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="1"/>
+        <v>0.1892361111111111</v>
       </c>
       <c r="G28" s="22"/>
     </row>
@@ -5701,13 +8161,20 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="22">
         <v>3.9236111111111112E-3</v>
       </c>
       <c r="D29" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E29" s="2">
+        <v>50</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19618055555555555</v>
       </c>
       <c r="G29" s="22"/>
     </row>
@@ -5716,13 +8183,20 @@
         <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="22">
         <v>3.7615740740740739E-3</v>
       </c>
       <c r="D30" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E30" s="2">
+        <v>50</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="1"/>
+        <v>0.18807870370370369</v>
       </c>
       <c r="G30" s="22"/>
     </row>
@@ -5731,13 +8205,20 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="22">
         <v>3.5069444444444445E-3</v>
       </c>
       <c r="D31" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>50</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="1"/>
+        <v>0.17534722222222221</v>
       </c>
       <c r="G31" s="22"/>
     </row>
@@ -5746,13 +8227,20 @@
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="22">
         <v>3.8310185185185183E-3</v>
       </c>
       <c r="D32" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E32" s="2">
+        <v>50</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="1"/>
+        <v>0.19155092592592593</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -5761,14 +8249,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="22">
         <v>0</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5776,14 +8266,16 @@
         <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="22">
         <v>0</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5791,13 +8283,20 @@
         <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="22">
         <v>6.9212962962962969E-3</v>
       </c>
       <c r="D35" s="2">
         <v>1.29</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="1"/>
+        <v>6.9212962962962969E-3</v>
       </c>
       <c r="G35" s="22"/>
     </row>
@@ -5807,10 +8306,2969 @@
         <v>4.9652777777777782E-2</v>
       </c>
       <c r="D36" s="2"/>
+      <c r="E36" s="3">
+        <f>SUM(E3:E16)+SUM(E22:E35)</f>
+        <v>749</v>
+      </c>
+      <c r="F36" s="23">
+        <f>SUM(F22:F35)</f>
+        <v>2.1293171296296296</v>
+      </c>
       <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="30" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="33">
+        <f>E3/D3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" s="33">
+        <f>H3/D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" ref="F4:F29" si="0">E4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="33">
+        <f t="shared" ref="I4:I14" si="1">H4/D4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>50</v>
+      </c>
+      <c r="I9" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>19</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="H13" s="2">
+        <v>15</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="3">
+        <f>SUM(D3:D14)</f>
+        <v>198</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(E3:E14)</f>
+        <v>196</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="0"/>
+        <v>0.98989898989898994</v>
+      </c>
+      <c r="H15" s="3">
+        <f>SUM(H3:H14)</f>
+        <v>193</v>
+      </c>
+      <c r="I15" s="34">
+        <f>H15/D15</f>
+        <v>0.9747474747474747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>24</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" ref="I18:I29" si="2">H18/D18</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>25</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>25</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2">
+        <v>61</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="0"/>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>64</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="0"/>
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="33">
+        <f t="shared" si="2"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2">
+        <v>49</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="H22" s="2">
+        <v>49</v>
+      </c>
+      <c r="I22" s="33">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <v>49</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="H23" s="2">
+        <v>50</v>
+      </c>
+      <c r="I23" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="H24" s="2">
+        <v>21</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" si="2"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2">
+        <v>50</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>50</v>
+      </c>
+      <c r="I28" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <f>SUM(D18:D29)</f>
+        <v>551</v>
+      </c>
+      <c r="E30" s="3">
+        <f>SUM(E18:E29)</f>
+        <v>327</v>
+      </c>
+      <c r="F30" s="34">
+        <f>E30/D30</f>
+        <v>0.59346642468239563</v>
+      </c>
+      <c r="H30" s="3">
+        <f>SUM(H18:H29)</f>
+        <v>224</v>
+      </c>
+      <c r="I30" s="34">
+        <f>H30/D30</f>
+        <v>0.40653357531760437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="3">
+        <f>D15+D30</f>
+        <v>749</v>
+      </c>
+      <c r="E32" s="3">
+        <f>E15+E30</f>
+        <v>523</v>
+      </c>
+      <c r="F32" s="49">
+        <f>E32/D32</f>
+        <v>0.69826435246995999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="3">
+        <v>749</v>
+      </c>
+      <c r="E34" s="3">
+        <f>H15+H30</f>
+        <v>417</v>
+      </c>
+      <c r="F34" s="49">
+        <f>E34/D34</f>
+        <v>0.5567423230974633</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="3">
+        <f>D32+D32</f>
+        <v>1498</v>
+      </c>
+      <c r="E36" s="3">
+        <f>E32+E34</f>
+        <v>940</v>
+      </c>
+      <c r="F36" s="49">
+        <f>E36/D36</f>
+        <v>0.62750333778371159</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5916</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4910</v>
+      </c>
+      <c r="F38" s="49">
+        <f>E38/D38</f>
+        <v>0.82995267072346179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="33">
+        <f>E3/D3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" ref="F4:F30" si="0">E4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>19</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="3">
+        <f>SUM(D3:D14)</f>
+        <v>198</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(E3:E14)</f>
+        <v>196</v>
+      </c>
+      <c r="F15" s="49">
+        <f t="shared" si="0"/>
+        <v>0.98989898989898994</v>
+      </c>
+      <c r="H15" s="42">
+        <f t="shared" ref="H15:I15" si="1">SUM(H3:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="42">
+        <f>SUM(J3:J14)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="42">
+        <f>SUM(K3:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="45">
+        <f>(SUM(H15:K15)+E15)/D15</f>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2">
+        <v>25</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2">
+        <v>61</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="0"/>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>64</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="0"/>
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>11</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2">
+        <v>49</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <v>49</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="H24" s="2">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>49</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>50</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2">
+        <v>50</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="40"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <f>SUM(D18:D29)</f>
+        <v>551</v>
+      </c>
+      <c r="E30" s="3">
+        <f>SUM(E18:E29)</f>
+        <v>327</v>
+      </c>
+      <c r="F30" s="49">
+        <f t="shared" si="0"/>
+        <v>0.59346642468239563</v>
+      </c>
+      <c r="H30" s="42">
+        <f t="shared" ref="H30:I30" si="2">SUM(H18:H29)</f>
+        <v>92</v>
+      </c>
+      <c r="I30" s="42">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J30" s="42">
+        <f>SUM(J18:J29)</f>
+        <v>7</v>
+      </c>
+      <c r="K30" s="42">
+        <f>SUM(K18:K29)</f>
+        <v>100</v>
+      </c>
+      <c r="M30" s="45">
+        <f>(SUM(H30:K30)+E30)/D30</f>
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" ref="F33:F44" si="3">E33/D3</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="M33" s="39"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="M34" s="40"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="M35" s="40"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="M36" s="40"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="M37" s="40"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="M38" s="40"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>50</v>
+      </c>
+      <c r="F39" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="M39" s="40"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>57</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
+      <c r="F40" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="M40" s="40"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2">
+        <v>50</v>
+      </c>
+      <c r="F41" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="M41" s="40"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="M42" s="40"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2">
+        <v>15</v>
+      </c>
+      <c r="F43" s="33">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="2">
+        <v>5</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" t="s">
+        <v>204</v>
+      </c>
+      <c r="M43" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="M44" s="40"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="D45" s="3">
+        <f>SUM(D33:D44)</f>
+        <v>198</v>
+      </c>
+      <c r="E45" s="3">
+        <f>SUM(E33:E44)</f>
+        <v>193</v>
+      </c>
+      <c r="F45" s="49">
+        <f t="shared" ref="F45" si="4">E45/D45</f>
+        <v>0.9747474747474747</v>
+      </c>
+      <c r="H45" s="42">
+        <f t="shared" ref="H45:I45" si="5">SUM(H33:H44)</f>
+        <v>5</v>
+      </c>
+      <c r="I45" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="42">
+        <f>SUM(J33:J44)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="42">
+        <f>SUM(K33:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="41"/>
+      <c r="M45" s="45">
+        <f>(SUM(H45:K45)+E45)/D45</f>
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="K47" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M47" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2">
+        <v>24</v>
+      </c>
+      <c r="F48" s="33">
+        <f t="shared" ref="F48:F59" si="6">E48/D18</f>
+        <v>0.96</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" t="s">
+        <v>198</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2">
+        <v>25</v>
+      </c>
+      <c r="F49" s="33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="M49" s="40"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2">
+        <v>75</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <v>75</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" t="s">
+        <v>198</v>
+      </c>
+      <c r="M50" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="33">
+        <f t="shared" si="6"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" t="s">
+        <v>198</v>
+      </c>
+      <c r="M51" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2">
+        <v>49</v>
+      </c>
+      <c r="F52" s="33">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" t="s">
+        <v>200</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2">
+        <v>50</v>
+      </c>
+      <c r="F53" s="33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="M53" s="40"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>50</v>
+      </c>
+      <c r="E54" s="2">
+        <v>21</v>
+      </c>
+      <c r="F54" s="33">
+        <f t="shared" si="6"/>
+        <v>0.42</v>
+      </c>
+      <c r="H54" s="2">
+        <v>29</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" t="s">
+        <v>200</v>
+      </c>
+      <c r="M54" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>13</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>50</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>50</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>18</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <v>50</v>
+      </c>
+      <c r="L56" t="s">
+        <v>203</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>19</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
+        <v>50</v>
+      </c>
+      <c r="L57" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="2">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2">
+        <v>50</v>
+      </c>
+      <c r="E58" s="2">
+        <v>50</v>
+      </c>
+      <c r="F58" s="33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="M58" s="40"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="40"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <f>SUM(D48:D59)</f>
+        <v>551</v>
+      </c>
+      <c r="E60" s="3">
+        <f>SUM(E48:E59)</f>
+        <v>224</v>
+      </c>
+      <c r="F60" s="49">
+        <f t="shared" ref="F60" si="7">E60/D60</f>
+        <v>0.40653357531760437</v>
+      </c>
+      <c r="H60" s="42">
+        <f t="shared" ref="H60:I60" si="8">SUM(H48:H59)</f>
+        <v>80</v>
+      </c>
+      <c r="I60" s="42">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="J60" s="42">
+        <f>SUM(J48:J59)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="42">
+        <f>SUM(K48:K59)</f>
+        <v>100</v>
+      </c>
+      <c r="M60" s="45">
+        <f>(SUM(H60:K60)+E60)/D60</f>
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G62" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" s="5">
+        <f>H15+H30+H45+H60</f>
+        <v>177</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" ref="I62:K62" si="9">I15+I30+I45+I60</f>
+        <v>173</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="K62" s="5">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="M62" s="46">
+        <f>(SUM(H62:K62))/((D15-E15)+(D30-E30)+(D45-E45)+(D60-E60))</f>
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N67" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="O67" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="P67" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="R67" s="48"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>226</v>
+      </c>
+      <c r="O68">
+        <v>200</v>
+      </c>
+      <c r="P68" s="47">
+        <f>O68/'Results Graphed'!$B$1</f>
+        <v>0.35842293906810035</v>
+      </c>
+    </row>
+    <row r="69" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>223</v>
+      </c>
+      <c r="O69">
+        <v>172</v>
+      </c>
+      <c r="P69" s="47">
+        <f>O69/'Results Graphed'!$B$1</f>
+        <v>0.30824372759856633</v>
+      </c>
+    </row>
+    <row r="70" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>220</v>
+      </c>
+      <c r="O70">
+        <v>99</v>
+      </c>
+      <c r="P70" s="47">
+        <f>O70/'Results Graphed'!$B$1</f>
+        <v>0.17741935483870969</v>
+      </c>
+    </row>
+    <row r="71" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>219</v>
+      </c>
+      <c r="O71">
+        <v>73</v>
+      </c>
+      <c r="P71" s="47">
+        <f>O71/'Results Graphed'!$B$1</f>
+        <v>0.13082437275985664</v>
+      </c>
+    </row>
+    <row r="72" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>225</v>
+      </c>
+      <c r="O72">
+        <v>7</v>
+      </c>
+      <c r="P72" s="47">
+        <f>O72/'Results Graphed'!$B$1</f>
+        <v>1.2544802867383513E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>221</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73" s="47">
+        <f>O73/'Results Graphed'!$B$1</f>
+        <v>8.9605734767025085E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>230</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" s="47">
+        <f>O74/'Results Graphed'!$B$1</f>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>224</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" s="47">
+        <f>O75/'Results Graphed'!$B$1</f>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="N67:P75">
+    <sortState ref="N67:P74">
+      <sortCondition descending="1" ref="P65:P73"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25">
+        <v>940</v>
+      </c>
+      <c r="F25" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>